--- a/public/assets/tempfiles/subjects.xlsx
+++ b/public/assets/tempfiles/subjects.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">paperCode</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">C Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
   </si>
 </sst>
 </file>
@@ -52,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -74,6 +78,7 @@
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -224,10 +229,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E2"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -254,10 +259,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>3</v>
+        <v>12345</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>4</v>
